--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BD/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BD/20/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.8</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.707699999999993</v>
+        <v>-6.358699999999991</v>
       </c>
       <c r="E2" t="n">
         <v>12.33</v>
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.062199999999989</v>
+        <v>6.10929999999999</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.178399999999995</v>
+        <v>-8.207399999999993</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>9.129199999999997</v>
+        <v>9.0921</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -703,13 +703,13 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>8.9626</v>
+        <v>8.975</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.039299999999995</v>
+        <v>-7.870799999999998</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.720299999999996</v>
+        <v>5.774199999999994</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -822,7 +822,7 @@
         <v>-20.86</v>
       </c>
       <c r="B23" t="n">
-        <v>5.535800000000003</v>
+        <v>5.363300000000001</v>
       </c>
       <c r="C23" t="n">
         <v>-10.59</v>
@@ -856,7 +856,7 @@
         <v>-21.66</v>
       </c>
       <c r="B25" t="n">
-        <v>6.034499999999992</v>
+        <v>5.955899999999994</v>
       </c>
       <c r="C25" t="n">
         <v>-14.32</v>
